--- a/info_papers.xlsx
+++ b/info_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\magister\propagacion-incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0B872-3151-4EFC-89C6-C8BC90A85EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF765509-0072-4C77-A057-906390B7C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66D5AC22-24BE-4795-8951-5D4A0EEF5911}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Paper</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Spatial variability in Arctic–boreal fire regimes influenced by environmental and human factors</t>
   </si>
   <si>
-    <t>Baja importancia</t>
-  </si>
-  <si>
     <t>paquete Mclust: modelo de cluster mezcla gaussiana finita</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Next Day Wildfire Spread: A Machine Learning Dataset to Predict Wildfire Spreading From Remote-Sensing Data</t>
   </si>
   <si>
-    <t>Le va pésimo</t>
-  </si>
-  <si>
     <t>https://journals.ametsoc.org/view/journals/aies/3/3/AIES-D-23-0087.1.xml</t>
   </si>
   <si>
@@ -269,6 +263,16 @@
   </si>
   <si>
     <t>Fire Intensity and spRead forecAst (FIRA): A Machine Learning Based Fire Spread Prediction Model for Air Quality Forecasting Application</t>
+  </si>
+  <si>
+    <t>Según los puntos donde sabemos que se quemó algo en un día dado, estimamos por interpolación cuándo (qué día) se quemaron las demás celdas"</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2503.08580</t>
+  </si>
+  <si>
+    <t>Comparing Next-Day Wildfire Predictability of
+MODIS and VIIRS Satellite Data</t>
   </si>
 </sst>
 </file>
@@ -737,25 +741,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAFF9BD-90D0-405C-A75D-86DB60E838DA}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.85546875" customWidth="1"/>
+    <col min="8" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -810,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="I3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
@@ -847,82 +854,85 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -940,9 +950,10 @@
     <hyperlink ref="B8" r:id="rId9" xr:uid="{3C41ECD5-4B6F-4023-A445-BEA7B1202B65}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{BAFFED2F-59DE-44CE-9896-544B71E6E2D4}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{9221BA70-A21C-44C9-9B92-F08C8B4A568A}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{7FBDFC1B-D332-453A-B6B5-723F388C7AA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -954,24 +965,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -987,9 +998,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>

--- a/info_papers.xlsx
+++ b/info_papers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\magister\propagacion-incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF765509-0072-4C77-A057-906390B7C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AB5FB-D2C1-435E-AE3A-E265E01D0401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66D5AC22-24BE-4795-8951-5D4A0EEF5911}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66D5AC22-24BE-4795-8951-5D4A0EEF5911}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="estudios" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="papers" sheetId="1" r:id="rId1"/>
+    <sheet name="papers2" sheetId="4" r:id="rId2"/>
+    <sheet name="estudios" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Paper</t>
   </si>
@@ -193,9 +194,6 @@
     <t>https://www.int-res.com/articles/cr/6/c006p215.pdf</t>
   </si>
   <si>
-    <t>Incendios con duracion de 100 dias D:</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIIRS, ERAS5, GlobBiomass </t>
   </si>
   <si>
@@ -273,6 +271,84 @@
   <si>
     <t>Comparing Next-Day Wildfire Predictability of
 MODIS and VIIRS Satellite Data</t>
+  </si>
+  <si>
+    <t>https://download.e-bookshelf.de/download/0004/0172/80/L-G-0004017280-0009119041.pdf</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Statistics for Spatio-Temporal Data</t>
+  </si>
+  <si>
+    <t>Wildfire Risk Prediction: A Review</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/html/2405.01607v1</t>
+  </si>
+  <si>
+    <t>https://medium.com/@su-paris/wildfire-prediction-using-machine-learning-1-2-d08c9156c0cb</t>
+  </si>
+  <si>
+    <t>https://lup.lub.lu.se/search/files/5312973/1581115.pdf</t>
+  </si>
+  <si>
+    <t>An explicit link between Gaussian fields and Gaussian Markov random fields; The SPDE approach</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/132556063.pdf</t>
+  </si>
+  <si>
+    <t>A spatio-temporal Poisson Hurdle point process to model wildfires</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2571-6255/7/5/170</t>
+  </si>
+  <si>
+    <t>The Dynamics of Fire Activity in the Brazilian Pantanal: A Log-Gaussian Cox Process-Based Structural Decomposition</t>
+  </si>
+  <si>
+    <t>Approximate Bayesian inference for latent Gaussian models by using integrated nested Laplace approximations</t>
+  </si>
+  <si>
+    <t>https://rss.onlinelibrary.wiley.com/doi/10.1111/j.1467-9868.2008.00700.x</t>
+  </si>
+  <si>
+    <t>Incendios con duracion de 100 dias ???</t>
+  </si>
+  <si>
+    <t>Bayesian spatio-temporal modeling of the Brazilian fire spots between 2011 and 2022</t>
+  </si>
+  <si>
+    <t>modelo lineal mixto generalizado espacio-temporal para datos de unidades de área, cuyas inferencias sobre sus parámetros se realizan en un marco bayesiano</t>
+  </si>
+  <si>
+    <t>Descripcion modelo</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-024-70082-6</t>
+  </si>
+  <si>
+    <t>Data-driven modeling of wildfire spread with stochastic cellular automata and latent spatio-temporal dynamics</t>
+  </si>
+  <si>
+    <t>esto no, pero suena entrete</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s13253-024-00617-x</t>
+  </si>
+  <si>
+    <t>Spatio-Temporal Marked Point Process Model to Understand Forest Fires in the Mediterranean Basin</t>
+  </si>
+  <si>
+    <t>https://nhess.copernicus.org/articles/special_issue924.html</t>
+  </si>
+  <si>
+    <t>https://rubenfcasal.github.io/files/Geoestadistica_espacio-temporal.pdf</t>
   </si>
 </sst>
 </file>
@@ -377,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,6 +480,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,23 +822,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAFF9BD-90D0-405C-A75D-86DB60E838DA}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.88671875" customWidth="1"/>
+    <col min="8" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -814,7 +893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -834,105 +913,105 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -958,49 +1037,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F347F4-EB01-4AC9-BDED-5830AE7AF176}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A3093-D711-4113-8F93-D74E09FD94CC}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9F6989D4-A297-4320-BE73-3D899691B1AE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0A4DBD45-B70C-4D55-8A12-6C5EA8C283FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F347F4-EB01-4AC9-BDED-5830AE7AF176}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{55F4832E-9A46-4533-8A4B-4F8C41EB65BD}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{6121F37C-88F4-471D-869E-4987B722EE00}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{F5660EEC-F525-4BE6-A4C2-B88F75DFB3E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4EAD5-3B57-4F31-9E1D-6B4A0ACCBAFE}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>

--- a/info_papers.xlsx
+++ b/info_papers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\magister\propagacion-incendios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AB5FB-D2C1-435E-AE3A-E265E01D0401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E502B4C7-C746-4CFA-BE70-31E3BE3A043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66D5AC22-24BE-4795-8951-5D4A0EEF5911}"/>
+    <workbookView xWindow="11535" yWindow="0" windowWidth="17370" windowHeight="15585" activeTab="1" xr2:uid="{66D5AC22-24BE-4795-8951-5D4A0EEF5911}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
-    <sheet name="papers2" sheetId="4" r:id="rId2"/>
-    <sheet name="estudios" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
+    <sheet name="papers2" sheetId="4" r:id="rId3"/>
+    <sheet name="estudios" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>Paper</t>
   </si>
@@ -349,6 +350,221 @@
   </si>
   <si>
     <t>https://rubenfcasal.github.io/files/Geoestadistica_espacio-temporal.pdf</t>
+  </si>
+  <si>
+    <t>MODIS; MOD14A1, datos topograficos SRTM, datos meteoreologicos GRIDMET, datos de sequia GRIDMET, datos vegetacion VIIRS (cada 8 dias), datos de densidad de poblacion</t>
+  </si>
+  <si>
+    <t>Resolución y periodo</t>
+  </si>
+  <si>
+    <t>1km por pixel, información diaria</t>
+  </si>
+  <si>
+    <t>Predecir una máscara de fuego binaria (fuego/no fuego) para cada píxel en t+1. Se contrastan los modelos de machine learning; Random Forest y regresión logíistica con un modelo de segmentación de imagenes que usa un autoencoder convolucional. Para los modelos de ML, se enfoca en un vecindario de 3x3 pixeles (procesamiento y predicción por pixel) y para el de DL se usa toda la región como contexto espacial (trabaja a nivel de imagen).</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIIRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: banda I Suomi-NPP VIIRS (VNP14IMGML, Colección 1 Versión 4), firms VNP14IMGTDL 
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Landcover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Base de Datos Nacional de Cobertura Terrestre de EE. UU. Fusión de las 16 clases originales en varios grupos: 'Agua', 'Urbano', 'Árido', 'Bosque', 'Arbusto', 'Pastizales' y 'Agricultura'
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fondo de un plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: reflectancia corregida Aqua MODIS (color verdadero)
+*área quemada de MODIS (MCD64A1)</t>
+    </r>
+  </si>
+  <si>
+    <t>375 m, procesados como polígonos de incendio y buffers de propagación diaria</t>
+  </si>
+  <si>
+    <t>No hay modelamiento como tal, se indica la propagación existente dia a dia para potenciar futuros modelos de predicción de propagación</t>
+  </si>
+  <si>
+    <t>MODIS (1 km), VIIRS (375 m)</t>
+  </si>
+  <si>
+    <t>MODIS, VIIRS VNP14IMG, area quemada MCD64A1</t>
+  </si>
+  <si>
+    <t>Reconstrucción de como se propagó cada incendio, se utilizó kriging para construir las superficies de propagación, estas ayudan a estimar que zonas y que dia se quemaron a partir de la info disponible</t>
+  </si>
+  <si>
+    <t>30 m para simulaciones (FireGrid); resolución VIIRS: 375 m</t>
+  </si>
+  <si>
+    <t>VIIRS, topografía, viento, combustible, humedad, datos meteorológicos</t>
+  </si>
+  <si>
+    <t>Se busca mejorar los modelos y simulaciones físicas de propagación de incendios en su estado inicial</t>
+  </si>
+  <si>
+    <t>Modelos</t>
+  </si>
+  <si>
+    <t>Random Forest, Regresion logística, segmentación de imágenes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modelo generativo (GLO), simulación fisica WRF-SFIRE</t>
+  </si>
+  <si>
+    <t>MODIS, VIIRS, NDVI, NBR, indices de humedad, datos meteorológicos y topográficos</t>
+  </si>
+  <si>
+    <t>Comparación de técnicas de deeplearning para la predicción de incendios y propagación. Para predecir la propagación de incendios se evalua una red neuronal convLSTM , la cual se aplica a secuencias diarias y mensuales</t>
+  </si>
+  <si>
+    <t>375 m y 1 km</t>
+  </si>
+  <si>
+    <t>convLSTM</t>
+  </si>
+  <si>
+    <t>MOD14, VNP14, ERA5, KBDI (sequia)</t>
+  </si>
+  <si>
+    <t>U-Net</t>
+  </si>
+  <si>
+    <t>U-Net con ResNet-50</t>
+  </si>
+  <si>
+    <t>Compara la predicción  de incendios al día siguiente usando VIIRS y MODIS. Realiza una predicción de nivel de pixel. Se usa el modelo U-Net con ResNet-50 el cual retorna un valor binario por pixel de fuego o no en el tiempo t+1</t>
+  </si>
+  <si>
+    <t>1km y 375m, diaria</t>
+  </si>
+  <si>
+    <t>375 m, se usa hasta 7 días previos</t>
+  </si>
+  <si>
+    <t>Predicción de fuego al día siguiente dada la información de tiempos anteriores. Se usa un valor bianario (hay o no fuego). Se implementó un modelo encoder-decoder similar a un transformer, constrastandolo con arquitecturas como CNN, CNN-LSTM y convLSTM</t>
+  </si>
+  <si>
+    <t>Encoder-decoder, CNN, CNN-LSTM y convLSTM</t>
+  </si>
+  <si>
+    <t>solo VIIRS, no usa covariables</t>
+  </si>
+  <si>
+    <t>Himawari-8</t>
+  </si>
+  <si>
+    <t>2km, datos cada 10 min</t>
+  </si>
+  <si>
+    <t>Usan un algoritmo para detectar puntos calientes y le hacen seguimiento calculando la distancia entre centroides, asumiento que el desplazamiento refleja la dirección y magnitud de la propagación</t>
+  </si>
+  <si>
+    <t>Bayesian Spatio-Temporal Modeling of the Brazilian Fire Spots Between 2011 and 2022</t>
+  </si>
+  <si>
+    <t>datos metereologicos, NDVI, focos de incendios provenientes de MODIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mensual </t>
+  </si>
+  <si>
+    <t>Se extraen tasas de propagaión de incendios usando un satelite geoestacionario. Se usa un algoritmo para estimar las tasas de propagación identificando los centroices y su velocidad de avance, se realiza la estimación en tiempo casi real a partir de observaciones en intervalos de 10 min</t>
+  </si>
+  <si>
+    <t>Enfocado al riesgo de fuego, realizan un conteo de focos de incendios mensuales. Se usa un modelo bayesiano jerarquico espacio temporal, en donde Y sigue una sitribución poisson para medir el numero mensual de focos de incendio, al parte lineal se usan las cov, un efecto espacial aleatorio (modelo CAR) y un efecto temporal aleatorio. Para realizar la estimación se usó el metodo INLA (Integrated Nested Laplace Approximation)</t>
+  </si>
+  <si>
+    <t>modelo jerarquico bayesiano, INLA</t>
+  </si>
+  <si>
+    <t>A Bayesian Spatio-Temporal Level Set Dynamic Model and Application to Fire Front Propagation</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2210.14978</t>
+  </si>
+  <si>
+    <t>datos de perimetros de fuego, meteorológicos y topográficos</t>
+  </si>
+  <si>
+    <t>Modelo bayesiano que describe la propagación espacio temporal del incendio de forma continua. Se presenta una funcion que toma f(x, y, t) que nos indica el frente de fuego (si es &lt;0 ya se quemó, &gt;0 aun no se ha quemado, =0 se esta quemando). El avance se mide con una ecuación diferencial parcial, la cual depende de la velocidad de propagación que varia segun la posición y tiempo, esta se modela como un campo aleatorio. Se realiza la inferencia con MCMC</t>
+  </si>
+  <si>
+    <t>Modelo jerarquico bayesiano dinamico (perimetros observados con incendios y campo latente de la velocidad el cual es desconocido a priori), inferencia MCMC</t>
+  </si>
+  <si>
+    <t>Deep Learning Approach to Improve Spatial Resolution of GOES-17 Wildfire Boundaries Using VIIRS Satellite Data</t>
+  </si>
+  <si>
+    <t>2km (GOES)</t>
+  </si>
+  <si>
+    <t>Modelo de deep learning U-Net que mejora la resolución del satélite geoestacionario GOES-17 usando datos de VIIRS</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2072-4292/16/4/715</t>
+  </si>
+  <si>
+    <t>GOES, VIIRS</t>
   </si>
 </sst>
 </file>
@@ -453,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -483,6 +699,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAFF9BD-90D0-405C-A75D-86DB60E838DA}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +1177,7 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="4"/>
@@ -1030,18 +1249,290 @@
     <hyperlink ref="B10" r:id="rId10" xr:uid="{BAFFED2F-59DE-44CE-9896-544B71E6E2D4}"/>
     <hyperlink ref="B9" r:id="rId11" xr:uid="{9221BA70-A21C-44C9-9B92-F08C8B4A568A}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{7FBDFC1B-D332-453A-B6B5-723F388C7AA6}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{C15675E5-1A77-452A-BC13-15ABBFFE9344}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F199C6CF-BCD0-41A1-AC2F-C65CE4FF11A1}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{8F6B0836-8675-413F-B068-65DAC09AA4D7}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{1A507A8E-7038-47AA-9864-966F79DACA68}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{A0DEAC67-9B38-4D35-997B-2C2200061405}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{61BBAC3E-F77C-468E-8BF3-7A7C8305FF8E}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{9C64E159-0C6D-4003-9C20-386A4A92ABEC}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{78972C46-2A1F-42D9-94CC-6B425A252DB2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A3093-D711-4113-8F93-D74E09FD94CC}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1575,7 @@
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="1"/>
@@ -1102,7 +1593,7 @@
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="1"/>
@@ -1120,7 +1611,7 @@
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1131,7 +1622,7 @@
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1152,17 +1643,21 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{9F6989D4-A297-4320-BE73-3D899691B1AE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0A4DBD45-B70C-4D55-8A12-6C5EA8C283FA}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{4D1A6B70-923E-41E8-8495-94C452D2947C}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D5E259E1-FCB4-41CC-9ED5-77BF963C27D2}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{076B467B-0BCF-4A07-9F63-84C8545E09B9}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{65459A34-4995-4FDC-989C-5DBB7091F09E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F347F4-EB01-4AC9-BDED-5830AE7AF176}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD4EAD5-3B57-4F31-9E1D-6B4A0ACCBAFE}">
   <dimension ref="A2"/>
   <sheetViews>
